--- a/public/templates/locations_template.xlsx
+++ b/public/templates/locations_template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Template" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -397,140 +397,167 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
+        <v>internalCode</v>
+      </c>
+      <c r="B1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" t="str">
+      <c r="C1" t="str">
         <v>description</v>
       </c>
-      <c r="C1" t="str">
+      <c r="D1" t="str">
         <v>icon</v>
       </c>
-      <c r="D1" t="str">
-        <v>parentId</v>
+      <c r="E1" t="str">
+        <v>parentInternalCode</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
+        <v>PLANT_A</v>
+      </c>
+      <c r="B2" t="str">
         <v>Plant A</v>
       </c>
-      <c r="B2" t="str">
+      <c r="C2" t="str">
         <v>Main production facility</v>
       </c>
-      <c r="C2" t="str">
+      <c r="D2" t="str">
         <v>factory</v>
       </c>
-      <c r="D2" t="str">
+      <c r="E2" t="str">
         <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
+        <v>BUILDING_A</v>
+      </c>
+      <c r="B3" t="str">
         <v>Building A</v>
       </c>
-      <c r="B3" t="str">
+      <c r="C3" t="str">
         <v>Main building structure</v>
       </c>
-      <c r="C3" t="str">
+      <c r="D3" t="str">
         <v>building</v>
       </c>
-      <c r="D3" t="str">
-        <v>Plant A</v>
+      <c r="E3" t="str">
+        <v>PLANT_A</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
+        <v>BUILDING_B</v>
+      </c>
+      <c r="B4" t="str">
         <v>Building B</v>
       </c>
-      <c r="B4" t="str">
+      <c r="C4" t="str">
         <v>Secondary building</v>
       </c>
-      <c r="C4" t="str">
+      <c r="D4" t="str">
         <v>building2</v>
       </c>
-      <c r="D4" t="str">
-        <v>Plant A</v>
+      <c r="E4" t="str">
+        <v>PLANT_A</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
+        <v>PROD_LINE_1</v>
+      </c>
+      <c r="B5" t="str">
         <v>Production Line 1</v>
       </c>
-      <c r="B5" t="str">
+      <c r="C5" t="str">
         <v>Production line 1</v>
       </c>
-      <c r="C5" t="str">
+      <c r="D5" t="str">
         <v>wrench</v>
       </c>
-      <c r="D5" t="str">
-        <v>Building A</v>
+      <c r="E5" t="str">
+        <v>BUILDING_A</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
+        <v>PROD_LINE_2</v>
+      </c>
+      <c r="B6" t="str">
         <v>Production Line 2</v>
       </c>
-      <c r="B6" t="str">
+      <c r="C6" t="str">
         <v>Production line 2</v>
       </c>
-      <c r="C6" t="str">
+      <c r="D6" t="str">
         <v>wrench</v>
       </c>
-      <c r="D6" t="str">
-        <v>Building A</v>
+      <c r="E6" t="str">
+        <v>BUILDING_A</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
+        <v>WAREHOUSE</v>
+      </c>
+      <c r="B7" t="str">
         <v>Warehouse Section</v>
       </c>
-      <c r="B7" t="str">
+      <c r="C7" t="str">
         <v>Storage and logistics area</v>
       </c>
-      <c r="C7" t="str">
+      <c r="D7" t="str">
         <v>warehouse</v>
       </c>
-      <c r="D7" t="str">
-        <v>Building B</v>
+      <c r="E7" t="str">
+        <v>PLANT_A</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
+        <v>OFFICE</v>
+      </c>
+      <c r="B8" t="str">
         <v>Office Area</v>
       </c>
-      <c r="B8" t="str">
+      <c r="C8" t="str">
         <v>Administrative offices</v>
       </c>
-      <c r="C8" t="str">
+      <c r="D8" t="str">
         <v>landmark</v>
       </c>
-      <c r="D8" t="str">
-        <v>Building A</v>
+      <c r="E8" t="str">
+        <v>BUILDING_B</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
+        <v>DOCK</v>
+      </c>
+      <c r="B9" t="str">
         <v>Loading Dock</v>
       </c>
-      <c r="B9" t="str">
+      <c r="C9" t="str">
         <v>Transport and loading area</v>
       </c>
-      <c r="C9" t="str">
+      <c r="D9" t="str">
         <v>truck</v>
       </c>
-      <c r="D9" t="str">
-        <v>Plant A</v>
+      <c r="E9" t="str">
+        <v>PLANT_A</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E9"/>
   </ignoredErrors>
 </worksheet>
 </file>